--- a/lab 3/sonar_accuracy_data.xlsx
+++ b/lab 3/sonar_accuracy_data.xlsx
@@ -1,36 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\GitHub\robotics\lab 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40406A65-A776-4714-AB16-6A7DF6BB91A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>true distance</t>
   </si>
   <si>
     <t>readings</t>
   </si>
+  <si>
+    <t>difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -40,117 +60,1644 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Real Sonar Distance Measurements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2965955355293689"/>
+                  <c:y val="0.18447997435435073"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 0.9855x</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14BC-4C04-8ACD-3F91D5563AA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1336104895"/>
+        <c:axId val="1324649151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1336104895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Real</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324649151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1324649151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Sonar Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336104895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B104A01A-37E1-4E3E-B0DC-F2882B7AD8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="J1" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K1" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="M1" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="N1" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="O1" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="P1" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="R1" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="S1" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="T1" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="U1" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="V1" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -177,7 +1724,7 @@
         <v>34.86</v>
       </c>
       <c r="J2" s="1">
-        <v>39.45</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="K2" s="1">
         <v>44.38</v>
@@ -195,10 +1742,10 @@
         <v>64.53</v>
       </c>
       <c r="P2" s="1">
-        <v>69.24</v>
+        <v>69.239999999999995</v>
       </c>
       <c r="Q2" s="1">
-        <v>73.9</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="R2" s="1">
         <v>79.12</v>
@@ -216,7 +1763,93 @@
         <v>97.21</v>
       </c>
     </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>C1-C2</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:R3" si="0">D1-D2</f>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000064</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.71000000000000085</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.61999999999999744</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0.76000000000000512</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3" si="1">S1-S2</f>
+        <v>1.2800000000000011</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3" si="2">T1-T2</f>
+        <v>1.2099999999999937</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3" si="3">U1-U2</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3" si="4">V1-V2</f>
+        <v>2.7900000000000063</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>